--- a/biology/Virologie/Mollivirus_sibericum/Mollivirus_sibericum.xlsx
+++ b/biology/Virologie/Mollivirus_sibericum/Mollivirus_sibericum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mollivirus sibericum est un virus géant découvert en 2015 par l'équipe de Chantal Abergel et Jean-Michel Claverie, du laboratoire Information génomique et structurale du CNRS et de l'université d'Aix-Marseille. Ce virus a été découvert dans le pergélisol (ou permafrost) sibérien, là où l'équipe découvreuse avait déjà trouvé l'année précédente le virus géant Pithovirus sibericum. Mollivirus sibericum mesure 500 à 600 nanomètres de diamètre[1].
+Mollivirus sibericum est un virus géant découvert en 2015 par l'équipe de Chantal Abergel et Jean-Michel Claverie, du laboratoire Information génomique et structurale du CNRS et de l'université d'Aix-Marseille. Ce virus a été découvert dans le pergélisol (ou permafrost) sibérien, là où l'équipe découvreuse avait déjà trouvé l'année précédente le virus géant Pithovirus sibericum. Mollivirus sibericum mesure 500 à 600 nanomètres de diamètre.
 Mollivirus sibericum possède des caractéristiques communes avec plusieurs autres membres de la famille des virus géants. Sa forme rappelle ainsi celle d'un Pithovirus sibericum alors que son mode de multiplication semble plus proche de celui des Pandoravirus. 
 </t>
         </is>
